--- a/Load_Test_3.xlsx
+++ b/Load_Test_3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP1.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,8 @@
     <sheet name="WS" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="WS_OPT" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="WS_2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GRPC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="WS_3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="GRPC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Z_CFF2A41C_2806_45FC_B444_8442DE61AAF1_.wvu.FilterData" localSheetId="1" hidden="1">'Copy of WS_OPT'!$H$3:$H$43</definedName>
@@ -34,6 +35,11 @@
     <definedName name="Z_D210883B_149E_422D_A8A1_F635FF026777_.wvu.FilterData" localSheetId="4" hidden="1">WS_2!$M$3:$M$3</definedName>
     <definedName name="Z_B2CDEC9F_560D_412B_89E2_F20E313B5709_.wvu.FilterData" localSheetId="4" hidden="1">WS_2!$A$3:$N$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'WS_2'!$A$3:$N$3</definedName>
+    <definedName name="Z_CFF2A41C_2806_45FC_B444_8442DE61AAF1_.wvu.FilterData" localSheetId="5" hidden="1">WS_3!$K$3:$K$3</definedName>
+    <definedName name="Z_7EC83DDA_662C_4A32_B76E_5CDCCF151655_.wvu.FilterData" localSheetId="5" hidden="1">WS_3!$J$3:$J$3</definedName>
+    <definedName name="Z_D210883B_149E_422D_A8A1_F635FF026777_.wvu.FilterData" localSheetId="5" hidden="1">WS_3!$M$3:$M$3</definedName>
+    <definedName name="Z_B2CDEC9F_560D_412B_89E2_F20E313B5709_.wvu.FilterData" localSheetId="5" hidden="1">WS_3!$A$3:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'WS_3'!$A$3:$N$3</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -42,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <name val="Arial"/>
       <charset val="134"/>
@@ -79,6 +85,13 @@
     <font>
       <name val="Arial"/>
       <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
@@ -92,22 +105,15 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -122,7 +128,54 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +191,7 @@
       <name val="Arial"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -152,6 +205,21 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
@@ -159,40 +227,8 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -205,31 +241,8 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -285,7 +298,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,37 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,37 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +406,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,73 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,20 +563,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,152 +592,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -756,23 +769,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -1257,31 +1273,31 @@
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="19" t="n">
         <v>120098.754</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="19" t="n">
         <v>287.26</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="19" t="n">
         <v>2.979</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="19" t="n">
         <v>5.517</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="19" t="n">
         <v>11.592</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="19" t="n">
         <v>11649121</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="19" t="n">
         <v>96996.19</v>
       </c>
       <c r="K4" s="1" t="n"/>
@@ -1304,31 +1320,31 @@
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="19" t="n">
         <v>120091.223</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="19" t="n">
         <v>1165.89</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="19" t="n">
         <v>7.454</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="19" t="n">
         <v>13.779</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="19" t="n">
         <v>29.508</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="19" t="n">
         <v>47763813</v>
       </c>
-      <c r="J5" s="18" t="n">
+      <c r="J5" s="19" t="n">
         <v>397729.42</v>
       </c>
       <c r="K5" s="1" t="n"/>
@@ -1351,31 +1367,31 @@
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="19" t="n">
         <v>120012.949</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="19" t="n">
         <v>1280.1</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="19" t="n">
         <v>35.675</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="19" t="n">
         <v>53.693</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="19" t="n">
         <v>84.18899999999999</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="19" t="n">
         <v>52410518</v>
       </c>
-      <c r="J6" s="18" t="n">
+      <c r="J6" s="19" t="n">
         <v>436707.19</v>
       </c>
       <c r="K6" s="1" t="n"/>
@@ -1398,31 +1414,31 @@
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="19" t="n">
         <v>120012.647</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="19" t="n">
         <v>1242.07</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="19" t="n">
         <v>75.3</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="19" t="n">
         <v>106.062</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="19" t="n">
         <v>149.222</v>
       </c>
-      <c r="I7" s="18" t="n">
+      <c r="I7" s="19" t="n">
         <v>50853462</v>
       </c>
-      <c r="J7" s="18" t="n">
+      <c r="J7" s="19" t="n">
         <v>423734.19</v>
       </c>
       <c r="K7" s="1" t="n"/>
@@ -1445,31 +1461,31 @@
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="19" t="n">
         <v>120075.261</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="19" t="n">
         <v>1239.51</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="19" t="n">
         <v>235.727</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="19" t="n">
         <v>295.815</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="19" t="n">
         <v>392.405</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="19" t="n">
         <v>50773110</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="19" t="n">
         <v>422844.05</v>
       </c>
       <c r="K8" s="1" t="n"/>
@@ -1492,31 +1508,31 @@
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="19" t="n">
         <v>500</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="19" t="n">
         <v>120015.797</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="19" t="n">
         <v>1248.91</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="19" t="n">
         <v>389.95</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="19" t="n">
         <v>463.71</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="19" t="n">
         <v>684.151</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="19" t="n">
         <v>51134484</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="19" t="n">
         <v>426064.61</v>
       </c>
       <c r="K9" s="1" t="n"/>
@@ -1539,31 +1555,31 @@
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="19" t="n">
         <v>500</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="19" t="n">
         <v>120099.354</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="19" t="n">
         <v>1253.13</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="19" t="n">
         <v>388.318</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="19" t="n">
         <v>463.348</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="19" t="n">
         <v>735.021</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="19" t="n">
         <v>51343798</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="19" t="n">
         <v>427511.03</v>
       </c>
       <c r="K10" s="1" t="n"/>
@@ -1586,31 +1602,31 @@
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="19" t="n">
         <v>500</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="19" t="n">
         <v>120099.144</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="19" t="n">
         <v>1253.13</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="19" t="n">
         <v>388.604</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="19" t="n">
         <v>480.116</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="19" t="n">
         <v>646.6609999999999</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="19" t="n">
         <v>51343576</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="19" t="n">
         <v>427509.92</v>
       </c>
       <c r="K11" s="1" t="n"/>
@@ -1630,81 +1646,81 @@
       <c r="Y11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="n">
+      <c r="A12" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="n">
+      <c r="B12" s="21" t="n">
         <v>500</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="21" t="n">
         <v>120100.804</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="21" t="n">
         <v>1201.17</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="21" t="n">
         <v>409.765</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="21" t="n">
         <v>484.88</v>
       </c>
-      <c r="H12" s="20" t="n">
+      <c r="H12" s="21" t="n">
         <v>607.343</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="21" t="n">
         <v>49210307</v>
       </c>
-      <c r="J12" s="20" t="n">
+      <c r="J12" s="21" t="n">
         <v>409741.69</v>
       </c>
-      <c r="K12" s="19" t="n"/>
-      <c r="L12" s="19" t="n"/>
-      <c r="M12" s="19" t="n"/>
-      <c r="N12" s="19" t="n"/>
-      <c r="O12" s="19" t="n"/>
-      <c r="P12" s="19" t="n"/>
-      <c r="Q12" s="19" t="n"/>
-      <c r="R12" s="19" t="n"/>
-      <c r="S12" s="19" t="n"/>
-      <c r="T12" s="19" t="n"/>
-      <c r="U12" s="19" t="n"/>
-      <c r="V12" s="19" t="n"/>
-      <c r="W12" s="19" t="n"/>
-      <c r="X12" s="19" t="n"/>
-      <c r="Y12" s="19" t="n"/>
+      <c r="K12" s="20" t="n"/>
+      <c r="L12" s="20" t="n"/>
+      <c r="M12" s="20" t="n"/>
+      <c r="N12" s="20" t="n"/>
+      <c r="O12" s="20" t="n"/>
+      <c r="P12" s="20" t="n"/>
+      <c r="Q12" s="20" t="n"/>
+      <c r="R12" s="20" t="n"/>
+      <c r="S12" s="20" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="20" t="n"/>
+      <c r="V12" s="20" t="n"/>
+      <c r="W12" s="20" t="n"/>
+      <c r="X12" s="20" t="n"/>
+      <c r="Y12" s="20" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="19" t="n">
         <v>500</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="19" t="n">
         <v>200</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <v>120100.682</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="19" t="n">
         <v>1242.78</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="19" t="n">
         <v>314.922</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="19" t="n">
         <v>374.558</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="19" t="n">
         <v>515.253</v>
       </c>
-      <c r="I13" s="18" t="n">
+      <c r="I13" s="19" t="n">
         <v>50919492</v>
       </c>
-      <c r="J13" s="18" t="n">
+      <c r="J13" s="19" t="n">
         <v>423973.38</v>
       </c>
       <c r="K13" s="1" t="n"/>
@@ -1727,31 +1743,31 @@
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="19" t="n">
         <v>700</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="19" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>120100.878</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="19" t="n">
         <v>1233.32</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="19" t="n">
         <v>478.878</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="19" t="n">
         <v>566.604</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="19" t="n">
         <v>714.761</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="19" t="n">
         <v>50530008</v>
       </c>
-      <c r="J14" s="18" t="n">
+      <c r="J14" s="19" t="n">
         <v>420729.71</v>
       </c>
       <c r="K14" s="1" t="n"/>
@@ -1771,128 +1787,128 @@
       <c r="Y14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="23" t="n">
         <v>120092.173</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="23" t="n">
         <v>1198.12</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="F15" s="23" t="n">
         <v>811.538</v>
       </c>
-      <c r="G15" s="22" t="n">
+      <c r="G15" s="23" t="n">
         <v>952.403</v>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="H15" s="23" t="n">
         <v>1192.856</v>
       </c>
-      <c r="I15" s="22" t="n">
+      <c r="I15" s="23" t="n">
         <v>49082762</v>
       </c>
-      <c r="J15" s="22" t="n">
+      <c r="J15" s="23" t="n">
         <v>408709.08</v>
       </c>
-      <c r="K15" s="21" t="n"/>
-      <c r="L15" s="21" t="n"/>
-      <c r="M15" s="21" t="n"/>
-      <c r="N15" s="21" t="n"/>
-      <c r="O15" s="21" t="n"/>
-      <c r="P15" s="21" t="n"/>
-      <c r="Q15" s="21" t="n"/>
-      <c r="R15" s="21" t="n"/>
-      <c r="S15" s="21" t="n"/>
-      <c r="T15" s="21" t="n"/>
-      <c r="U15" s="21" t="n"/>
-      <c r="V15" s="21" t="n"/>
-      <c r="W15" s="21" t="n"/>
-      <c r="X15" s="21" t="n"/>
-      <c r="Y15" s="21" t="n"/>
+      <c r="K15" s="22" t="n"/>
+      <c r="L15" s="22" t="n"/>
+      <c r="M15" s="22" t="n"/>
+      <c r="N15" s="22" t="n"/>
+      <c r="O15" s="22" t="n"/>
+      <c r="P15" s="22" t="n"/>
+      <c r="Q15" s="22" t="n"/>
+      <c r="R15" s="22" t="n"/>
+      <c r="S15" s="22" t="n"/>
+      <c r="T15" s="22" t="n"/>
+      <c r="U15" s="22" t="n"/>
+      <c r="V15" s="22" t="n"/>
+      <c r="W15" s="22" t="n"/>
+      <c r="X15" s="22" t="n"/>
+      <c r="Y15" s="22" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="23" t="n">
         <v>120098.045</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="23" t="n">
         <v>1218.97</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="23" t="n">
         <v>801.197</v>
       </c>
-      <c r="G16" s="22" t="n">
+      <c r="G16" s="23" t="n">
         <v>928.98</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="23" t="n">
         <v>1369.485</v>
       </c>
-      <c r="I16" s="22" t="n">
+      <c r="I16" s="23" t="n">
         <v>49940015</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="23" t="n">
         <v>415827.04</v>
       </c>
-      <c r="K16" s="21" t="n"/>
-      <c r="L16" s="21" t="n"/>
-      <c r="M16" s="21" t="n"/>
-      <c r="N16" s="21" t="n"/>
-      <c r="O16" s="21" t="n"/>
-      <c r="P16" s="21" t="n"/>
-      <c r="Q16" s="21" t="n"/>
-      <c r="R16" s="21" t="n"/>
-      <c r="S16" s="21" t="n"/>
-      <c r="T16" s="21" t="n"/>
-      <c r="U16" s="21" t="n"/>
-      <c r="V16" s="21" t="n"/>
-      <c r="W16" s="21" t="n"/>
-      <c r="X16" s="21" t="n"/>
-      <c r="Y16" s="21" t="n"/>
+      <c r="K16" s="22" t="n"/>
+      <c r="L16" s="22" t="n"/>
+      <c r="M16" s="22" t="n"/>
+      <c r="N16" s="22" t="n"/>
+      <c r="O16" s="22" t="n"/>
+      <c r="P16" s="22" t="n"/>
+      <c r="Q16" s="22" t="n"/>
+      <c r="R16" s="22" t="n"/>
+      <c r="S16" s="22" t="n"/>
+      <c r="T16" s="22" t="n"/>
+      <c r="U16" s="22" t="n"/>
+      <c r="V16" s="22" t="n"/>
+      <c r="W16" s="22" t="n"/>
+      <c r="X16" s="22" t="n"/>
+      <c r="Y16" s="22" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>120097.557</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="19" t="n">
         <v>1259.37</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="19" t="n">
         <v>73.498</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="19" t="n">
         <v>104.789</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="19" t="n">
         <v>193.752</v>
       </c>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="19" t="n">
         <v>51599366</v>
       </c>
-      <c r="J17" s="18" t="n">
+      <c r="J17" s="19" t="n">
         <v>429645.43</v>
       </c>
       <c r="K17" s="1" t="n"/>
@@ -1915,31 +1931,31 @@
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="19" t="n">
         <v>200</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="19" t="n">
         <v>200</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>120098.186</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="19" t="n">
         <v>1287.72</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="19" t="n">
         <v>153.368</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="19" t="n">
         <v>200.077</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="19" t="n">
         <v>266.43</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="19" t="n">
         <v>52370136</v>
       </c>
-      <c r="J18" s="18" t="n">
+      <c r="J18" s="19" t="n">
         <v>436061.01</v>
       </c>
       <c r="K18" s="1" t="n"/>
@@ -1962,31 +1978,31 @@
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="19" t="n">
         <v>700</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="19" t="n">
         <v>200</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>120101.361</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="19" t="n">
         <v>1252.42</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="19" t="n">
         <v>476.83</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="19" t="n">
         <v>551.814</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="19" t="n">
         <v>631.627</v>
       </c>
-      <c r="I19" s="18" t="n">
+      <c r="I19" s="19" t="n">
         <v>51426580</v>
       </c>
-      <c r="J19" s="18" t="n">
+      <c r="J19" s="19" t="n">
         <v>428193.15</v>
       </c>
       <c r="K19" s="1" t="n"/>
@@ -2006,222 +2022,222 @@
       <c r="Y19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n">
+      <c r="A20" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="23" t="n">
         <v>1500</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="23" t="n">
         <v>120100.057</v>
       </c>
-      <c r="E20" s="22" t="n">
+      <c r="E20" s="23" t="n">
         <v>1190.24</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="23" t="n">
         <v>1268.98</v>
       </c>
-      <c r="G20" s="22" t="n">
+      <c r="G20" s="23" t="n">
         <v>1443.752</v>
       </c>
-      <c r="H20" s="22" t="n">
+      <c r="H20" s="23" t="n">
         <v>1734.866</v>
       </c>
-      <c r="I20" s="22" t="n">
+      <c r="I20" s="23" t="n">
         <v>48763065</v>
       </c>
-      <c r="J20" s="22" t="n">
+      <c r="J20" s="23" t="n">
         <v>406020.33</v>
       </c>
-      <c r="K20" s="21" t="n"/>
-      <c r="L20" s="21" t="n"/>
-      <c r="M20" s="21" t="n"/>
-      <c r="N20" s="21" t="n"/>
-      <c r="O20" s="21" t="n"/>
-      <c r="P20" s="21" t="n"/>
-      <c r="Q20" s="21" t="n"/>
-      <c r="R20" s="21" t="n"/>
-      <c r="S20" s="21" t="n"/>
-      <c r="T20" s="21" t="n"/>
-      <c r="U20" s="21" t="n"/>
-      <c r="V20" s="21" t="n"/>
-      <c r="W20" s="21" t="n"/>
-      <c r="X20" s="21" t="n"/>
-      <c r="Y20" s="21" t="n"/>
+      <c r="K20" s="22" t="n"/>
+      <c r="L20" s="22" t="n"/>
+      <c r="M20" s="22" t="n"/>
+      <c r="N20" s="22" t="n"/>
+      <c r="O20" s="22" t="n"/>
+      <c r="P20" s="22" t="n"/>
+      <c r="Q20" s="22" t="n"/>
+      <c r="R20" s="22" t="n"/>
+      <c r="S20" s="22" t="n"/>
+      <c r="T20" s="22" t="n"/>
+      <c r="U20" s="22" t="n"/>
+      <c r="V20" s="22" t="n"/>
+      <c r="W20" s="22" t="n"/>
+      <c r="X20" s="22" t="n"/>
+      <c r="Y20" s="22" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="23" t="n">
         <v>2000</v>
       </c>
-      <c r="C21" s="22" t="n">
+      <c r="C21" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="D21" s="22" t="n">
+      <c r="D21" s="23" t="n">
         <v>120107.127</v>
       </c>
-      <c r="E21" s="22" t="n">
+      <c r="E21" s="23" t="n">
         <v>1593.11</v>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="23" t="n">
         <v>1184.894</v>
       </c>
-      <c r="G21" s="22" t="n">
+      <c r="G21" s="23" t="n">
         <v>1899.463</v>
       </c>
-      <c r="H21" s="22" t="n">
+      <c r="H21" s="23" t="n">
         <v>1988.174</v>
       </c>
-      <c r="I21" s="22" t="n">
+      <c r="I21" s="23" t="n">
         <v>62575630</v>
       </c>
-      <c r="J21" s="22" t="n">
+      <c r="J21" s="23" t="n">
         <v>520998.47</v>
       </c>
-      <c r="K21" s="21" t="n"/>
-      <c r="L21" s="21" t="n"/>
-      <c r="M21" s="21" t="n"/>
-      <c r="N21" s="21" t="n"/>
-      <c r="O21" s="21" t="n"/>
-      <c r="P21" s="21" t="n"/>
-      <c r="Q21" s="21" t="n"/>
-      <c r="R21" s="21" t="n"/>
-      <c r="S21" s="21" t="n"/>
-      <c r="T21" s="21" t="n"/>
-      <c r="U21" s="21" t="n"/>
-      <c r="V21" s="21" t="n"/>
-      <c r="W21" s="21" t="n"/>
-      <c r="X21" s="21" t="n"/>
-      <c r="Y21" s="21" t="n"/>
+      <c r="K21" s="22" t="n"/>
+      <c r="L21" s="22" t="n"/>
+      <c r="M21" s="22" t="n"/>
+      <c r="N21" s="22" t="n"/>
+      <c r="O21" s="22" t="n"/>
+      <c r="P21" s="22" t="n"/>
+      <c r="Q21" s="22" t="n"/>
+      <c r="R21" s="22" t="n"/>
+      <c r="S21" s="22" t="n"/>
+      <c r="T21" s="22" t="n"/>
+      <c r="U21" s="22" t="n"/>
+      <c r="V21" s="22" t="n"/>
+      <c r="W21" s="22" t="n"/>
+      <c r="X21" s="22" t="n"/>
+      <c r="Y21" s="22" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="n">
+      <c r="A22" s="20" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="n">
+      <c r="B22" s="21" t="n">
         <v>5000</v>
       </c>
-      <c r="C22" s="20" t="n">
+      <c r="C22" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="21" t="n">
         <v>300098.519</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="21" t="n">
         <v>3135.46</v>
       </c>
-      <c r="F22" s="20" t="n">
+      <c r="F22" s="21" t="n">
         <v>3.319</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="G22" s="21" t="n">
         <v>20.306</v>
       </c>
-      <c r="H22" s="20" t="n">
+      <c r="H22" s="21" t="n">
         <v>858.595</v>
       </c>
-      <c r="I22" s="20" t="n">
+      <c r="I22" s="21" t="n">
         <v>284470205</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="21" t="n">
         <v>947922.72</v>
       </c>
-      <c r="K22" s="19" t="n"/>
-      <c r="L22" s="19" t="n"/>
-      <c r="M22" s="19" t="n"/>
-      <c r="N22" s="19" t="n"/>
-      <c r="O22" s="19" t="n"/>
-      <c r="P22" s="19" t="n"/>
-      <c r="Q22" s="19" t="n"/>
-      <c r="R22" s="19" t="n"/>
-      <c r="S22" s="19" t="n"/>
-      <c r="T22" s="19" t="n"/>
-      <c r="U22" s="19" t="n"/>
-      <c r="V22" s="19" t="n"/>
-      <c r="W22" s="19" t="n"/>
-      <c r="X22" s="19" t="n"/>
-      <c r="Y22" s="19" t="n"/>
+      <c r="K22" s="20" t="n"/>
+      <c r="L22" s="20" t="n"/>
+      <c r="M22" s="20" t="n"/>
+      <c r="N22" s="20" t="n"/>
+      <c r="O22" s="20" t="n"/>
+      <c r="P22" s="20" t="n"/>
+      <c r="Q22" s="20" t="n"/>
+      <c r="R22" s="20" t="n"/>
+      <c r="S22" s="20" t="n"/>
+      <c r="T22" s="20" t="n"/>
+      <c r="U22" s="20" t="n"/>
+      <c r="V22" s="20" t="n"/>
+      <c r="W22" s="20" t="n"/>
+      <c r="X22" s="20" t="n"/>
+      <c r="Y22" s="20" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="n">
+      <c r="B23" s="21" t="n">
         <v>5000</v>
       </c>
-      <c r="C23" s="20" t="n">
+      <c r="C23" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="21" t="n">
         <v>300098.519</v>
       </c>
-      <c r="E23" s="20" t="n">
+      <c r="E23" s="21" t="n">
         <v>3135.46</v>
       </c>
-      <c r="F23" s="20" t="n">
+      <c r="F23" s="21" t="n">
         <v>3.319</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="21" t="n">
         <v>20.306</v>
       </c>
-      <c r="H23" s="20" t="n">
+      <c r="H23" s="21" t="n">
         <v>858.595</v>
       </c>
-      <c r="I23" s="20" t="n">
+      <c r="I23" s="21" t="n">
         <v>284470205</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="21" t="n">
         <v>947922.72</v>
       </c>
-      <c r="K23" s="19" t="n"/>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="N23" s="19" t="n"/>
-      <c r="O23" s="19" t="n"/>
-      <c r="P23" s="19" t="n"/>
-      <c r="Q23" s="19" t="n"/>
-      <c r="R23" s="19" t="n"/>
-      <c r="S23" s="19" t="n"/>
-      <c r="T23" s="19" t="n"/>
-      <c r="U23" s="19" t="n"/>
-      <c r="V23" s="19" t="n"/>
-      <c r="W23" s="19" t="n"/>
-      <c r="X23" s="19" t="n"/>
-      <c r="Y23" s="19" t="n"/>
+      <c r="K23" s="20" t="n"/>
+      <c r="L23" s="20" t="n"/>
+      <c r="M23" s="20" t="n"/>
+      <c r="N23" s="20" t="n"/>
+      <c r="O23" s="20" t="n"/>
+      <c r="P23" s="20" t="n"/>
+      <c r="Q23" s="20" t="n"/>
+      <c r="R23" s="20" t="n"/>
+      <c r="S23" s="20" t="n"/>
+      <c r="T23" s="20" t="n"/>
+      <c r="U23" s="20" t="n"/>
+      <c r="V23" s="20" t="n"/>
+      <c r="W23" s="20" t="n"/>
+      <c r="X23" s="20" t="n"/>
+      <c r="Y23" s="20" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B24" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="18" t="n">
+      <c r="D24" s="19" t="n">
         <v>120096.288</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="E24" s="19" t="n">
         <v>1298.96</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="19" t="n">
         <v>225.285</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="19" t="n">
         <v>275.535</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="19" t="n">
         <v>383.934</v>
       </c>
-      <c r="I24" s="18" t="n">
+      <c r="I24" s="19" t="n">
         <v>53222635</v>
       </c>
-      <c r="J24" s="18" t="n">
+      <c r="J24" s="19" t="n">
         <v>443166.36</v>
       </c>
       <c r="K24" s="1" t="n"/>
@@ -2244,31 +2260,31 @@
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="n">
+      <c r="B25" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <v>120089.55</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <v>1319.02</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <v>220.812</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="G25" s="19" t="n">
         <v>269.746</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="19" t="n">
         <v>372.152</v>
       </c>
-      <c r="I25" s="18" t="n">
+      <c r="I25" s="19" t="n">
         <v>54042675</v>
       </c>
-      <c r="J25" s="18" t="n">
+      <c r="J25" s="19" t="n">
         <v>450019.8</v>
       </c>
       <c r="K25" s="1" t="n"/>
@@ -2288,128 +2304,128 @@
       <c r="Y25" s="1" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n">
+      <c r="A26" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <v>3000</v>
       </c>
-      <c r="C26" s="22" t="n">
+      <c r="C26" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="D26" s="22" t="n">
+      <c r="D26" s="23" t="n">
         <v>120096.904</v>
       </c>
-      <c r="E26" s="22" t="n">
+      <c r="E26" s="23" t="n">
         <v>1231.73</v>
       </c>
-      <c r="F26" s="22" t="n">
+      <c r="F26" s="23" t="n">
         <v>1585.183</v>
       </c>
-      <c r="G26" s="22" t="n">
+      <c r="G26" s="23" t="n">
         <v>1714.82</v>
       </c>
-      <c r="H26" s="22" t="n">
+      <c r="H26" s="23" t="n">
         <v>1837.005</v>
       </c>
-      <c r="I26" s="22" t="n">
+      <c r="I26" s="23" t="n">
         <v>50463300</v>
       </c>
-      <c r="J26" s="22" t="n">
+      <c r="J26" s="23" t="n">
         <v>420188.18</v>
       </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="21" t="n"/>
-      <c r="M26" s="21" t="n"/>
-      <c r="N26" s="21" t="n"/>
-      <c r="O26" s="21" t="n"/>
-      <c r="P26" s="21" t="n"/>
-      <c r="Q26" s="21" t="n"/>
-      <c r="R26" s="21" t="n"/>
-      <c r="S26" s="21" t="n"/>
-      <c r="T26" s="21" t="n"/>
-      <c r="U26" s="21" t="n"/>
-      <c r="V26" s="21" t="n"/>
-      <c r="W26" s="21" t="n"/>
-      <c r="X26" s="21" t="n"/>
-      <c r="Y26" s="21" t="n"/>
+      <c r="K26" s="22" t="n"/>
+      <c r="L26" s="22" t="n"/>
+      <c r="M26" s="22" t="n"/>
+      <c r="N26" s="22" t="n"/>
+      <c r="O26" s="22" t="n"/>
+      <c r="P26" s="22" t="n"/>
+      <c r="Q26" s="22" t="n"/>
+      <c r="R26" s="22" t="n"/>
+      <c r="S26" s="22" t="n"/>
+      <c r="T26" s="22" t="n"/>
+      <c r="U26" s="22" t="n"/>
+      <c r="V26" s="22" t="n"/>
+      <c r="W26" s="22" t="n"/>
+      <c r="X26" s="22" t="n"/>
+      <c r="Y26" s="22" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n">
+      <c r="A27" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="23" t="n">
         <v>2000</v>
       </c>
-      <c r="C27" s="22" t="n">
+      <c r="C27" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="D27" s="22" t="n">
+      <c r="D27" s="23" t="n">
         <v>120096.927</v>
       </c>
-      <c r="E27" s="22" t="n">
+      <c r="E27" s="23" t="n">
         <v>1270.36</v>
       </c>
-      <c r="F27" s="22" t="n">
+      <c r="F27" s="23" t="n">
         <v>1272.842</v>
       </c>
-      <c r="G27" s="22" t="n">
+      <c r="G27" s="23" t="n">
         <v>1935.496</v>
       </c>
-      <c r="H27" s="22" t="n">
+      <c r="H27" s="23" t="n">
         <v>1987.812</v>
       </c>
-      <c r="I27" s="22" t="n">
+      <c r="I27" s="23" t="n">
         <v>52161018</v>
       </c>
-      <c r="J27" s="22" t="n">
+      <c r="J27" s="23" t="n">
         <v>434324.34</v>
       </c>
-      <c r="K27" s="21" t="n"/>
-      <c r="L27" s="21" t="n"/>
-      <c r="M27" s="21" t="n"/>
-      <c r="N27" s="21" t="n"/>
-      <c r="O27" s="21" t="n"/>
-      <c r="P27" s="21" t="n"/>
-      <c r="Q27" s="21" t="n"/>
-      <c r="R27" s="21" t="n"/>
-      <c r="S27" s="21" t="n"/>
-      <c r="T27" s="21" t="n"/>
-      <c r="U27" s="21" t="n"/>
-      <c r="V27" s="21" t="n"/>
-      <c r="W27" s="21" t="n"/>
-      <c r="X27" s="21" t="n"/>
-      <c r="Y27" s="21" t="n"/>
+      <c r="K27" s="22" t="n"/>
+      <c r="L27" s="22" t="n"/>
+      <c r="M27" s="22" t="n"/>
+      <c r="N27" s="22" t="n"/>
+      <c r="O27" s="22" t="n"/>
+      <c r="P27" s="22" t="n"/>
+      <c r="Q27" s="22" t="n"/>
+      <c r="R27" s="22" t="n"/>
+      <c r="S27" s="22" t="n"/>
+      <c r="T27" s="22" t="n"/>
+      <c r="U27" s="22" t="n"/>
+      <c r="V27" s="22" t="n"/>
+      <c r="W27" s="22" t="n"/>
+      <c r="X27" s="22" t="n"/>
+      <c r="Y27" s="22" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="18" t="n">
+      <c r="B28" s="19" t="n">
         <v>700</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="D28" s="18" t="n">
+      <c r="D28" s="19" t="n">
         <v>120093.621</v>
       </c>
-      <c r="E28" s="18" t="n">
+      <c r="E28" s="19" t="n">
         <v>1256.2</v>
       </c>
-      <c r="F28" s="18" t="n">
+      <c r="F28" s="19" t="n">
         <v>545.492</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="19" t="n">
         <v>622.939</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="19" t="n">
         <v>803.831</v>
       </c>
-      <c r="I28" s="18" t="n">
+      <c r="I28" s="19" t="n">
         <v>51578115</v>
       </c>
-      <c r="J28" s="18" t="n">
+      <c r="J28" s="19" t="n">
         <v>429482.55</v>
       </c>
       <c r="K28" s="1" t="n"/>
@@ -2429,98 +2445,98 @@
       <c r="Y28" s="1" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n">
+      <c r="A29" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="C29" s="22" t="n">
+      <c r="C29" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="D29" s="22" t="n">
+      <c r="D29" s="23" t="n">
         <v>120090.709</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="23" t="n">
         <v>1265.43</v>
       </c>
-      <c r="F29" s="22" t="n">
+      <c r="F29" s="23" t="n">
         <v>786.711</v>
       </c>
-      <c r="G29" s="22" t="n">
+      <c r="G29" s="23" t="n">
         <v>879.355</v>
       </c>
-      <c r="H29" s="22" t="n">
+      <c r="H29" s="23" t="n">
         <v>1024.566</v>
       </c>
-      <c r="I29" s="22" t="n">
+      <c r="I29" s="23" t="n">
         <v>51955640</v>
       </c>
-      <c r="J29" s="22" t="n">
+      <c r="J29" s="23" t="n">
         <v>432636.63</v>
       </c>
-      <c r="K29" s="21" t="n"/>
-      <c r="L29" s="21" t="n"/>
-      <c r="M29" s="21" t="n"/>
-      <c r="N29" s="21" t="n"/>
-      <c r="O29" s="21" t="n"/>
-      <c r="P29" s="21" t="n"/>
-      <c r="Q29" s="21" t="n"/>
-      <c r="R29" s="21" t="n"/>
-      <c r="S29" s="21" t="n"/>
-      <c r="T29" s="21" t="n"/>
-      <c r="U29" s="21" t="n"/>
-      <c r="V29" s="21" t="n"/>
-      <c r="W29" s="21" t="n"/>
-      <c r="X29" s="21" t="n"/>
-      <c r="Y29" s="21" t="n"/>
+      <c r="K29" s="22" t="n"/>
+      <c r="L29" s="22" t="n"/>
+      <c r="M29" s="22" t="n"/>
+      <c r="N29" s="22" t="n"/>
+      <c r="O29" s="22" t="n"/>
+      <c r="P29" s="22" t="n"/>
+      <c r="Q29" s="22" t="n"/>
+      <c r="R29" s="22" t="n"/>
+      <c r="S29" s="22" t="n"/>
+      <c r="T29" s="22" t="n"/>
+      <c r="U29" s="22" t="n"/>
+      <c r="V29" s="22" t="n"/>
+      <c r="W29" s="22" t="n"/>
+      <c r="X29" s="22" t="n"/>
+      <c r="Y29" s="22" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="23" t="n">
         <v>2000</v>
       </c>
-      <c r="C30" s="22" t="n">
+      <c r="C30" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="D30" s="22" t="n">
+      <c r="D30" s="23" t="n">
         <v>120100.524</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="23" t="n">
         <v>1259.74</v>
       </c>
-      <c r="F30" s="22" t="n">
+      <c r="F30" s="23" t="n">
         <v>1521.784</v>
       </c>
-      <c r="G30" s="22" t="n">
+      <c r="G30" s="23" t="n">
         <v>1921.75</v>
       </c>
-      <c r="H30" s="22" t="n">
+      <c r="H30" s="23" t="n">
         <v>1992.139</v>
       </c>
-      <c r="I30" s="22" t="n">
+      <c r="I30" s="23" t="n">
         <v>51725881</v>
       </c>
-      <c r="J30" s="22" t="n">
+      <c r="J30" s="23" t="n">
         <v>430688.22</v>
       </c>
-      <c r="K30" s="21" t="n"/>
-      <c r="L30" s="21" t="n"/>
-      <c r="M30" s="21" t="n"/>
-      <c r="N30" s="21" t="n"/>
-      <c r="O30" s="21" t="n"/>
-      <c r="P30" s="21" t="n"/>
-      <c r="Q30" s="21" t="n"/>
-      <c r="R30" s="21" t="n"/>
-      <c r="S30" s="21" t="n"/>
-      <c r="T30" s="21" t="n"/>
-      <c r="U30" s="21" t="n"/>
-      <c r="V30" s="21" t="n"/>
-      <c r="W30" s="21" t="n"/>
-      <c r="X30" s="21" t="n"/>
-      <c r="Y30" s="21" t="n"/>
+      <c r="K30" s="22" t="n"/>
+      <c r="L30" s="22" t="n"/>
+      <c r="M30" s="22" t="n"/>
+      <c r="N30" s="22" t="n"/>
+      <c r="O30" s="22" t="n"/>
+      <c r="P30" s="22" t="n"/>
+      <c r="Q30" s="22" t="n"/>
+      <c r="R30" s="22" t="n"/>
+      <c r="S30" s="22" t="n"/>
+      <c r="T30" s="22" t="n"/>
+      <c r="U30" s="22" t="n"/>
+      <c r="V30" s="22" t="n"/>
+      <c r="W30" s="22" t="n"/>
+      <c r="X30" s="22" t="n"/>
+      <c r="Y30" s="22" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -28836,7 +28852,7 @@
       <c r="L3" s="2" t="n"/>
     </row>
     <row r="4" ht="12" customHeight="1">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="n">
@@ -28873,7 +28889,7 @@
       </c>
     </row>
     <row r="5" ht="12" customHeight="1">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="n">
@@ -28910,7 +28926,7 @@
       </c>
     </row>
     <row r="6" ht="12" customHeight="1">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -28947,7 +28963,7 @@
       </c>
     </row>
     <row r="7" ht="12" customHeight="1">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="n">
@@ -28984,7 +29000,7 @@
       </c>
     </row>
     <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="n">
@@ -29021,7 +29037,7 @@
       </c>
     </row>
     <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="n">
@@ -29058,7 +29074,7 @@
       </c>
     </row>
     <row r="10" ht="12" customHeight="1">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="n">
@@ -29095,7 +29111,7 @@
       </c>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="n">
@@ -29132,7 +29148,7 @@
       </c>
     </row>
     <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="12" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="n">
@@ -29169,7 +29185,7 @@
       </c>
     </row>
     <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="n">
@@ -29206,7 +29222,7 @@
       </c>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="n">
@@ -29243,7 +29259,7 @@
       </c>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="n">
@@ -29280,7 +29296,7 @@
       </c>
     </row>
     <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="n">
@@ -29317,7 +29333,7 @@
       </c>
     </row>
     <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="12" t="n">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -29354,7 +29370,7 @@
       </c>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="n">
@@ -29391,7 +29407,7 @@
       </c>
     </row>
     <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="12" t="n">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="n">
@@ -29428,7 +29444,7 @@
       </c>
     </row>
     <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="12" t="n">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -29465,7 +29481,7 @@
       </c>
     </row>
     <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="n">
@@ -29502,7 +29518,7 @@
       </c>
     </row>
     <row r="22" ht="12" customHeight="1">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="12" t="n">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="n">
@@ -29539,7 +29555,7 @@
       </c>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="12" t="n">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="n">
@@ -29576,7 +29592,7 @@
       </c>
     </row>
     <row r="24" ht="12" customHeight="1">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="12" t="n">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -29613,7 +29629,7 @@
       </c>
     </row>
     <row r="25" ht="12" customHeight="1">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="12" t="n">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="n">
@@ -29650,7 +29666,7 @@
       </c>
     </row>
     <row r="26" ht="12" customHeight="1">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="n">
@@ -29687,7 +29703,7 @@
       </c>
     </row>
     <row r="27" ht="12" customHeight="1">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="12" t="n">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="n">
@@ -29722,23 +29738,23 @@
           <t>Enabled</t>
         </is>
       </c>
-      <c r="M27" s="16" t="n"/>
-      <c r="N27" s="16" t="n"/>
-      <c r="O27" s="16" t="n"/>
-      <c r="P27" s="16" t="n"/>
-      <c r="Q27" s="16" t="n"/>
-      <c r="R27" s="16" t="n"/>
-      <c r="S27" s="16" t="n"/>
-      <c r="T27" s="16" t="n"/>
-      <c r="U27" s="16" t="n"/>
-      <c r="V27" s="16" t="n"/>
-      <c r="W27" s="16" t="n"/>
-      <c r="X27" s="16" t="n"/>
-      <c r="Y27" s="16" t="n"/>
-      <c r="Z27" s="16" t="n"/>
+      <c r="M27" s="17" t="n"/>
+      <c r="N27" s="17" t="n"/>
+      <c r="O27" s="17" t="n"/>
+      <c r="P27" s="17" t="n"/>
+      <c r="Q27" s="17" t="n"/>
+      <c r="R27" s="17" t="n"/>
+      <c r="S27" s="17" t="n"/>
+      <c r="T27" s="17" t="n"/>
+      <c r="U27" s="17" t="n"/>
+      <c r="V27" s="17" t="n"/>
+      <c r="W27" s="17" t="n"/>
+      <c r="X27" s="17" t="n"/>
+      <c r="Y27" s="17" t="n"/>
+      <c r="Z27" s="17" t="n"/>
     </row>
     <row r="28" ht="12" customHeight="1">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="12" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="n">
@@ -29775,7 +29791,7 @@
       </c>
     </row>
     <row r="29" ht="12" customHeight="1">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="12" t="n">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="n">
@@ -29812,7 +29828,7 @@
       </c>
     </row>
     <row r="30" ht="12" customHeight="1">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="12" t="n">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="n">
@@ -29847,23 +29863,23 @@
           <t>Enabled</t>
         </is>
       </c>
-      <c r="M30" s="17" t="n"/>
-      <c r="N30" s="17" t="n"/>
-      <c r="O30" s="17" t="n"/>
-      <c r="P30" s="17" t="n"/>
-      <c r="Q30" s="17" t="n"/>
-      <c r="R30" s="17" t="n"/>
-      <c r="S30" s="17" t="n"/>
-      <c r="T30" s="17" t="n"/>
-      <c r="U30" s="17" t="n"/>
-      <c r="V30" s="17" t="n"/>
-      <c r="W30" s="17" t="n"/>
-      <c r="X30" s="17" t="n"/>
-      <c r="Y30" s="17" t="n"/>
-      <c r="Z30" s="17" t="n"/>
+      <c r="M30" s="18" t="n"/>
+      <c r="N30" s="18" t="n"/>
+      <c r="O30" s="18" t="n"/>
+      <c r="P30" s="18" t="n"/>
+      <c r="Q30" s="18" t="n"/>
+      <c r="R30" s="18" t="n"/>
+      <c r="S30" s="18" t="n"/>
+      <c r="T30" s="18" t="n"/>
+      <c r="U30" s="18" t="n"/>
+      <c r="V30" s="18" t="n"/>
+      <c r="W30" s="18" t="n"/>
+      <c r="X30" s="18" t="n"/>
+      <c r="Y30" s="18" t="n"/>
+      <c r="Z30" s="18" t="n"/>
     </row>
     <row r="31" ht="12" customHeight="1">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="12" t="n">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="n">
@@ -29900,7 +29916,7 @@
       </c>
     </row>
     <row r="32" ht="12" customHeight="1">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="12" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="n">
@@ -29937,7 +29953,7 @@
       </c>
     </row>
     <row r="33" ht="12" customHeight="1">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="12" t="n">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="n">
@@ -29974,7 +29990,7 @@
       </c>
     </row>
     <row r="34" ht="12" customHeight="1">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="12" t="n">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="n">
@@ -30011,7 +30027,7 @@
       </c>
     </row>
     <row r="35" ht="12" customHeight="1">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="12" t="n">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="n">
@@ -30048,7 +30064,7 @@
       </c>
     </row>
     <row r="36" ht="12" customHeight="1">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="12" t="n">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="n">
@@ -30085,7 +30101,7 @@
       </c>
     </row>
     <row r="37" ht="12" customHeight="1">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="12" t="n">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="n">
@@ -30122,7 +30138,7 @@
       </c>
     </row>
     <row r="38" ht="12" customHeight="1">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="12" t="n">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="n">
@@ -30159,7 +30175,7 @@
       </c>
     </row>
     <row r="39" ht="12" customHeight="1">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="12" t="n">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="n">
@@ -30196,7 +30212,7 @@
       </c>
     </row>
     <row r="40" ht="12" customHeight="1">
-      <c r="A40" s="11" t="n">
+      <c r="A40" s="12" t="n">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="n">
@@ -30233,7 +30249,7 @@
       </c>
     </row>
     <row r="41" ht="12" customHeight="1">
-      <c r="A41" s="11" t="n">
+      <c r="A41" s="12" t="n">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="n">
@@ -30270,7 +30286,7 @@
       </c>
     </row>
     <row r="42" ht="12" customHeight="1">
-      <c r="A42" s="11" t="n">
+      <c r="A42" s="12" t="n">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="n">
@@ -30307,7 +30323,7 @@
       </c>
     </row>
     <row r="43" ht="12" customHeight="1">
-      <c r="A43" s="11" t="n">
+      <c r="A43" s="12" t="n">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="n">
@@ -30464,7 +30480,7 @@
       <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="n">
@@ -30501,7 +30517,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="n">
@@ -30538,7 +30554,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -30575,7 +30591,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="n">
@@ -30612,7 +30628,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="n">
@@ -30649,7 +30665,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="n">
@@ -30686,7 +30702,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="n">
@@ -30723,7 +30739,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="n">
@@ -30760,7 +30776,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="12" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="n">
@@ -30797,7 +30813,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="n">
@@ -30834,7 +30850,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="n">
@@ -30871,7 +30887,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="n">
@@ -30908,7 +30924,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="12" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="n">
@@ -30945,7 +30961,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -30982,7 +30998,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="12" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="n">
@@ -31019,7 +31035,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="12" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="n">
@@ -31056,7 +31072,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -31093,7 +31109,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="12" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="n">
@@ -31130,7 +31146,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="12" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="n">
@@ -31167,7 +31183,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="12" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="n">
@@ -31204,7 +31220,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="12" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -31241,7 +31257,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="n">
@@ -31278,7 +31294,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="12" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="n">
@@ -31315,7 +31331,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="12" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="n">
@@ -31352,7 +31368,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="12" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="n">
@@ -31389,7 +31405,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="12" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="n">
@@ -31426,7 +31442,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="12" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="n">
@@ -31463,7 +31479,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="12" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="n">
@@ -31500,7 +31516,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="12" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="n">
@@ -31537,7 +31553,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="12" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="n">
@@ -31574,7 +31590,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="12" t="n">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="n">
@@ -31611,7 +31627,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="12" t="n">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="n">
@@ -31648,7 +31664,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="12" t="n">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="n">
@@ -31685,7 +31701,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="12" t="n">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="n">
@@ -31722,7 +31738,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="12" t="n">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="n">
@@ -31759,7 +31775,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="12" t="n">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="n">
@@ -31796,7 +31812,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n">
+      <c r="A40" s="12" t="n">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="n">
@@ -31833,7 +31849,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n">
+      <c r="A41" s="12" t="n">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="n">
@@ -31870,7 +31886,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="n">
+      <c r="A42" s="12" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="n">
@@ -31907,7 +31923,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="n">
+      <c r="A43" s="12" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="n">
@@ -31944,7 +31960,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n">
+      <c r="A44" s="12" t="n">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="n">
@@ -31981,7 +31997,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n">
+      <c r="A45" s="12" t="n">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="n">
@@ -32018,7 +32034,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n">
+      <c r="A46" s="12" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="n">
@@ -32055,7 +32071,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n">
+      <c r="A47" s="12" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="n">
@@ -32092,7 +32108,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n">
+      <c r="A48" s="12" t="n">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="n">
@@ -32129,7 +32145,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n">
+      <c r="A49" s="12" t="n">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="n">
@@ -32166,7 +32182,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n">
+      <c r="A50" s="12" t="n">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="n">
@@ -32203,7 +32219,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n">
+      <c r="A51" s="12" t="n">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="n">
@@ -32364,10 +32380,10 @@
       <c r="L3" s="2" t="n"/>
     </row>
     <row r="4" ht="12" customHeight="1">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -32401,7 +32417,7 @@
       </c>
     </row>
     <row r="5" ht="12" customHeight="1">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="n">
@@ -32438,7 +32454,7 @@
       </c>
     </row>
     <row r="6" ht="12" customHeight="1">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -32475,7 +32491,7 @@
       </c>
     </row>
     <row r="7" ht="12" customHeight="1">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="n">
@@ -32512,7 +32528,7 @@
       </c>
     </row>
     <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="n">
@@ -32549,7 +32565,7 @@
       </c>
     </row>
     <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="n">
@@ -32586,7 +32602,7 @@
       </c>
     </row>
     <row r="10" ht="12" customHeight="1">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="n">
@@ -32623,7 +32639,7 @@
       </c>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="n">
@@ -32660,7 +32676,7 @@
       </c>
     </row>
     <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="12" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="n">
@@ -32697,7 +32713,7 @@
       </c>
     </row>
     <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="n">
@@ -32734,7 +32750,7 @@
       </c>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="n">
@@ -32771,7 +32787,7 @@
       </c>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="n">
@@ -32808,7 +32824,7 @@
       </c>
     </row>
     <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="n">
@@ -32845,7 +32861,7 @@
       </c>
     </row>
     <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="12" t="n">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -32882,7 +32898,7 @@
       </c>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="n">
@@ -32919,7 +32935,7 @@
       </c>
     </row>
     <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="12" t="n">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="n">
@@ -32956,7 +32972,7 @@
       </c>
     </row>
     <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="12" t="n">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -32993,7 +33009,7 @@
       </c>
     </row>
     <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="n">
@@ -33030,7 +33046,7 @@
       </c>
     </row>
     <row r="22" ht="12" customHeight="1">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="12" t="n">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="n">
@@ -33067,7 +33083,7 @@
       </c>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="12" t="n">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="n">
@@ -33104,7 +33120,7 @@
       </c>
     </row>
     <row r="24" ht="12" customHeight="1">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="12" t="n">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -33141,7 +33157,7 @@
       </c>
     </row>
     <row r="25" ht="12" customHeight="1">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="12" t="n">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="n">
@@ -33178,7 +33194,7 @@
       </c>
     </row>
     <row r="26" ht="12" customHeight="1">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="n">
@@ -33215,59 +33231,59 @@
       </c>
     </row>
     <row r="27" ht="12" customHeight="1">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="13" t="n">
+      <c r="C27" s="14" t="n">
         <v>2000</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="14" t="n">
         <v>435900</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="14" t="n">
         <v>4353.619</v>
       </c>
-      <c r="G27" s="13" t="n">
+      <c r="G27" s="14" t="n">
         <v>11978</v>
       </c>
-      <c r="H27" s="13" t="n">
+      <c r="H27" s="14" t="n">
         <v>2768</v>
       </c>
-      <c r="I27" s="13" t="n">
+      <c r="I27" s="14" t="n">
         <v>10412</v>
       </c>
-      <c r="J27" s="13" t="n">
+      <c r="J27" s="14" t="n">
         <v>11176</v>
       </c>
-      <c r="K27" s="13" t="inlineStr">
+      <c r="K27" s="14" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="L27" s="16" t="n"/>
-      <c r="M27" s="16" t="n"/>
-      <c r="N27" s="16" t="n"/>
-      <c r="O27" s="16" t="n"/>
-      <c r="P27" s="16" t="n"/>
-      <c r="Q27" s="16" t="n"/>
-      <c r="R27" s="16" t="n"/>
-      <c r="S27" s="16" t="n"/>
-      <c r="T27" s="16" t="n"/>
-      <c r="U27" s="16" t="n"/>
-      <c r="V27" s="16" t="n"/>
-      <c r="W27" s="16" t="n"/>
-      <c r="X27" s="16" t="n"/>
-      <c r="Y27" s="16" t="n"/>
-      <c r="Z27" s="16" t="n"/>
+      <c r="L27" s="17" t="n"/>
+      <c r="M27" s="17" t="n"/>
+      <c r="N27" s="17" t="n"/>
+      <c r="O27" s="17" t="n"/>
+      <c r="P27" s="17" t="n"/>
+      <c r="Q27" s="17" t="n"/>
+      <c r="R27" s="17" t="n"/>
+      <c r="S27" s="17" t="n"/>
+      <c r="T27" s="17" t="n"/>
+      <c r="U27" s="17" t="n"/>
+      <c r="V27" s="17" t="n"/>
+      <c r="W27" s="17" t="n"/>
+      <c r="X27" s="17" t="n"/>
+      <c r="Y27" s="17" t="n"/>
+      <c r="Z27" s="17" t="n"/>
     </row>
     <row r="28" ht="12" customHeight="1">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="12" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="n">
@@ -33304,7 +33320,7 @@
       </c>
     </row>
     <row r="29" ht="12" customHeight="1">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="12" t="n">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="n">
@@ -33341,59 +33357,59 @@
       </c>
     </row>
     <row r="30" ht="12" customHeight="1">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D30" s="15" t="n">
+      <c r="D30" s="16" t="n">
         <v>300000</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="16" t="n">
         <v>5224.998</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="16" t="n">
         <v>13049</v>
       </c>
-      <c r="H30" s="15" t="n">
+      <c r="H30" s="16" t="n">
         <v>5869</v>
       </c>
-      <c r="I30" s="15" t="n">
+      <c r="I30" s="16" t="n">
         <v>9518</v>
       </c>
-      <c r="J30" s="15" t="n">
+      <c r="J30" s="16" t="n">
         <v>12626</v>
       </c>
-      <c r="K30" s="15" t="inlineStr">
+      <c r="K30" s="16" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="L30" s="17" t="n"/>
-      <c r="M30" s="17" t="n"/>
-      <c r="N30" s="17" t="n"/>
-      <c r="O30" s="17" t="n"/>
-      <c r="P30" s="17" t="n"/>
-      <c r="Q30" s="17" t="n"/>
-      <c r="R30" s="17" t="n"/>
-      <c r="S30" s="17" t="n"/>
-      <c r="T30" s="17" t="n"/>
-      <c r="U30" s="17" t="n"/>
-      <c r="V30" s="17" t="n"/>
-      <c r="W30" s="17" t="n"/>
-      <c r="X30" s="17" t="n"/>
-      <c r="Y30" s="17" t="n"/>
-      <c r="Z30" s="17" t="n"/>
+      <c r="L30" s="18" t="n"/>
+      <c r="M30" s="18" t="n"/>
+      <c r="N30" s="18" t="n"/>
+      <c r="O30" s="18" t="n"/>
+      <c r="P30" s="18" t="n"/>
+      <c r="Q30" s="18" t="n"/>
+      <c r="R30" s="18" t="n"/>
+      <c r="S30" s="18" t="n"/>
+      <c r="T30" s="18" t="n"/>
+      <c r="U30" s="18" t="n"/>
+      <c r="V30" s="18" t="n"/>
+      <c r="W30" s="18" t="n"/>
+      <c r="X30" s="18" t="n"/>
+      <c r="Y30" s="18" t="n"/>
+      <c r="Z30" s="18" t="n"/>
     </row>
     <row r="31" ht="12" customHeight="1">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="12" t="n">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="n">
@@ -33430,7 +33446,7 @@
       </c>
     </row>
     <row r="32" ht="12" customHeight="1">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="12" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="n">
@@ -33467,7 +33483,7 @@
       </c>
     </row>
     <row r="33" ht="12" customHeight="1">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="12" t="n">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="n">
@@ -33504,7 +33520,7 @@
       </c>
     </row>
     <row r="34" ht="12" customHeight="1">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="12" t="n">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="n">
@@ -33541,7 +33557,7 @@
       </c>
     </row>
     <row r="35" ht="12" customHeight="1">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="12" t="n">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="n">
@@ -33578,7 +33594,7 @@
       </c>
     </row>
     <row r="36" ht="12" customHeight="1">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="12" t="n">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="n">
@@ -33615,7 +33631,7 @@
       </c>
     </row>
     <row r="37" ht="12" customHeight="1">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="12" t="n">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="n">
@@ -33652,7 +33668,7 @@
       </c>
     </row>
     <row r="38" ht="12" customHeight="1">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="12" t="n">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="n">
@@ -33689,7 +33705,7 @@
       </c>
     </row>
     <row r="39" ht="12" customHeight="1">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="12" t="n">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="n">
@@ -33743,8 +33759,1296 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col width="12.25" customWidth="1" min="1" max="1"/>
+    <col width="19.3839285714286" customWidth="1" min="2" max="3"/>
+    <col width="23.0625" customWidth="1" min="4" max="4"/>
+    <col width="21.7232142857143" customWidth="1" min="5" max="5"/>
+    <col width="19.3839285714286" customWidth="1" min="6" max="6"/>
+    <col width="22.1339285714286" customWidth="1" min="7" max="8"/>
+    <col width="19.3839285714286" customWidth="1" min="9" max="10"/>
+    <col width="22.6339285714286" customWidth="1" min="11" max="11"/>
+    <col width="21.75" customWidth="1" min="12" max="12"/>
+    <col width="22.5" customWidth="1" min="13" max="13"/>
+    <col width="19.3839285714286" customWidth="1" min="14" max="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Server Machine Specs : 
+type :  t3.medium
+CPU: 2
+Mem: 4 GiB</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="13.2" customHeight="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>max requests</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>concurrency</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>concurrent clients</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>completed request</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>errors</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>total time</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>mean latency</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>rps</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>rps/client</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>50th percentile(ms)</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>90th percentile(ms)</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>99th percentile(ms)</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>100th percentile</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n"/>
+    </row>
+    <row r="5" ht="12" customHeight="1">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4463</v>
+      </c>
+      <c r="H5" t="n">
+        <v>213.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11203</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.334</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>197</v>
+      </c>
+      <c r="L5" t="n">
+        <v>379</v>
+      </c>
+      <c r="M5" t="n">
+        <v>458</v>
+      </c>
+      <c r="N5" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>480</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3747</v>
+      </c>
+      <c r="H6" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13344</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27.800</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>30</v>
+      </c>
+      <c r="L6" t="n">
+        <v>52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>78</v>
+      </c>
+      <c r="N6" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>480</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3879</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12890</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>26.854</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>32</v>
+      </c>
+      <c r="L7" t="n">
+        <v>49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>79</v>
+      </c>
+      <c r="N7" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>960</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3841</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13017</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13.559</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>62</v>
+      </c>
+      <c r="L8" t="n">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>137</v>
+      </c>
+      <c r="N8" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" ht="12" customHeight="1">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4200</v>
+      </c>
+      <c r="H9" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11905</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>4.960</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>170</v>
+      </c>
+      <c r="L9" t="n">
+        <v>246</v>
+      </c>
+      <c r="M9" t="n">
+        <v>323</v>
+      </c>
+      <c r="N9" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" ht="12" customHeight="1">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34207</v>
+      </c>
+      <c r="H10" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14617</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6.090</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>149</v>
+      </c>
+      <c r="L10" t="n">
+        <v>225</v>
+      </c>
+      <c r="M10" t="n">
+        <v>321</v>
+      </c>
+      <c r="N10" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3360</v>
+      </c>
+      <c r="E11" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>34673</v>
+      </c>
+      <c r="H11" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14420</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4.292</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>209</v>
+      </c>
+      <c r="L11" t="n">
+        <v>301</v>
+      </c>
+      <c r="M11" t="n">
+        <v>377</v>
+      </c>
+      <c r="N11" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3360</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>71989</v>
+      </c>
+      <c r="H12" t="n">
+        <v>232</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13891</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4.134</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>226</v>
+      </c>
+      <c r="L12" t="n">
+        <v>321</v>
+      </c>
+      <c r="M12" t="n">
+        <v>398</v>
+      </c>
+      <c r="N12" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>74481</v>
+      </c>
+      <c r="H13" t="n">
+        <v>323.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13426</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2.797</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>324</v>
+      </c>
+      <c r="L13" t="n">
+        <v>455</v>
+      </c>
+      <c r="M13" t="n">
+        <v>536</v>
+      </c>
+      <c r="N13" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>74834</v>
+      </c>
+      <c r="H14" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13363</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2.784</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>334</v>
+      </c>
+      <c r="L14" t="n">
+        <v>448</v>
+      </c>
+      <c r="M14" t="n">
+        <v>537</v>
+      </c>
+      <c r="N14" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>150</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>75743</v>
+      </c>
+      <c r="H15" t="n">
+        <v>521.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13203</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.834</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>519</v>
+      </c>
+      <c r="L15" t="n">
+        <v>670</v>
+      </c>
+      <c r="M15" t="n">
+        <v>826</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>73295</v>
+      </c>
+      <c r="H16" t="n">
+        <v>413.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13643</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2.274</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>408</v>
+      </c>
+      <c r="L16" t="n">
+        <v>562</v>
+      </c>
+      <c r="M16" t="n">
+        <v>663</v>
+      </c>
+      <c r="N16" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>120</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>70434</v>
+      </c>
+      <c r="H17" t="n">
+        <v>391.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14198</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2.465</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>383</v>
+      </c>
+      <c r="L17" t="n">
+        <v>514</v>
+      </c>
+      <c r="M17" t="n">
+        <v>669</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>73955</v>
+      </c>
+      <c r="H18" t="n">
+        <v>380.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13522</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2.561</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>370</v>
+      </c>
+      <c r="L18" t="n">
+        <v>508</v>
+      </c>
+      <c r="M18" t="n">
+        <v>599</v>
+      </c>
+      <c r="N18" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>75826</v>
+      </c>
+      <c r="H19" t="n">
+        <v>694.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>13188</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.374</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>691</v>
+      </c>
+      <c r="L19" t="n">
+        <v>872</v>
+      </c>
+      <c r="M19" t="n">
+        <v>980</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>67819</v>
+      </c>
+      <c r="H20" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14745</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10.240</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>89</v>
+      </c>
+      <c r="L20" t="n">
+        <v>137</v>
+      </c>
+      <c r="M20" t="n">
+        <v>187</v>
+      </c>
+      <c r="N20" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>59410</v>
+      </c>
+      <c r="H21" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16832</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>8.767</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>112</v>
+      </c>
+      <c r="L21" t="n">
+        <v>120</v>
+      </c>
+      <c r="M21" t="n">
+        <v>162</v>
+      </c>
+      <c r="N21" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" ht="12" customHeight="1">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>90</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4320</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>71075</v>
+      </c>
+      <c r="H22" t="n">
+        <v>294.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14070</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>3.257</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>293</v>
+      </c>
+      <c r="L22" t="n">
+        <v>378</v>
+      </c>
+      <c r="M22" t="n">
+        <v>491</v>
+      </c>
+      <c r="N22" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" ht="12" customHeight="1">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>95</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4560</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>67537</v>
+      </c>
+      <c r="H23" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14807</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>3.247</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>289</v>
+      </c>
+      <c r="L23" t="n">
+        <v>361</v>
+      </c>
+      <c r="M23" t="n">
+        <v>463</v>
+      </c>
+      <c r="N23" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" ht="12" customHeight="1">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>110</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>69735</v>
+      </c>
+      <c r="H24" t="n">
+        <v>358.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14340</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2.716</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>349</v>
+      </c>
+      <c r="L24" t="n">
+        <v>483</v>
+      </c>
+      <c r="M24" t="n">
+        <v>575</v>
+      </c>
+      <c r="N24" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="25" ht="12" customHeight="1">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>120</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>69170</v>
+      </c>
+      <c r="H25" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14457</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2.510</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>387</v>
+      </c>
+      <c r="L25" t="n">
+        <v>509</v>
+      </c>
+      <c r="M25" t="n">
+        <v>611</v>
+      </c>
+      <c r="N25" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" ht="12" customHeight="1">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>140854</v>
+      </c>
+      <c r="H26" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14199</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2.465</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>383</v>
+      </c>
+      <c r="L26" t="n">
+        <v>539</v>
+      </c>
+      <c r="M26" t="n">
+        <v>644</v>
+      </c>
+      <c r="N26" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" ht="12" customHeight="1">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>144429</v>
+      </c>
+      <c r="H27" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13848</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.885</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>334</v>
+      </c>
+      <c r="L27" t="n">
+        <v>425</v>
+      </c>
+      <c r="M27" t="n">
+        <v>533</v>
+      </c>
+      <c r="N27" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" ht="12" customHeight="1">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>201322</v>
+      </c>
+      <c r="H28" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14902</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>3.105</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>310</v>
+      </c>
+      <c r="L28" t="n">
+        <v>402</v>
+      </c>
+      <c r="M28" t="n">
+        <v>538</v>
+      </c>
+      <c r="N28" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" ht="12" customHeight="1">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>100</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>356804</v>
+      </c>
+      <c r="H29" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14013</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.919</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>334</v>
+      </c>
+      <c r="L29" t="n">
+        <v>452</v>
+      </c>
+      <c r="M29" t="n">
+        <v>553</v>
+      </c>
+      <c r="N29" t="n">
+        <v>818</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:N3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
@@ -33771,7 +35075,7 @@
 Mem: 4 GiB</t>
         </is>
       </c>
-      <c r="K1" s="8" t="n"/>
+      <c r="K1" s="11" t="n"/>
     </row>
     <row r="2" ht="13.2" customHeight="1">
       <c r="A2" s="1" t="n"/>
@@ -33871,10 +35175,10 @@
         <v>50000</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4800</v>
+        <v>480</v>
       </c>
       <c r="E5" t="n">
         <v>50000</v>
@@ -33883,30 +35187,30 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4463</v>
+        <v>716</v>
       </c>
       <c r="H5" t="n">
-        <v>213.2</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>11203</v>
+        <v>69832</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.334</t>
+          <t>145.483</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>379</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>458</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>498</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -33929,30 +35233,30 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3747</v>
+        <v>751</v>
       </c>
       <c r="H6" t="n">
-        <v>32.7</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>13344</v>
+        <v>66578</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>27.800</t>
+          <t>138.704</t>
         </is>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15</v>
+      </c>
+      <c r="N6" t="n">
         <v>30</v>
-      </c>
-      <c r="L6" t="n">
-        <v>52</v>
-      </c>
-      <c r="M6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N6" t="n">
-        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -33975,30 +35279,30 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3879</v>
+        <v>737</v>
       </c>
       <c r="H7" t="n">
-        <v>33.4</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>12890</v>
+        <v>67843</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>26.854</t>
+          <t>141.340</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="N7" t="n">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -34006,45 +35310,45 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="E8" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3841</v>
+        <v>1293</v>
       </c>
       <c r="H8" t="n">
-        <v>66.09999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>13017</v>
+        <v>77340</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13.559</t>
+          <t>161.125</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -34052,45 +35356,45 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="E9" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4200</v>
+        <v>1278</v>
       </c>
       <c r="H9" t="n">
-        <v>174.4</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>11905</v>
+        <v>78247</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.960</t>
+          <t>163.015</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>353</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -34101,10 +35405,10 @@
         <v>500000</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="E10" t="n">
         <v>500000</v>
@@ -34113,30 +35417,30 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34207</v>
+        <v>5470</v>
       </c>
       <c r="H10" t="n">
-        <v>159.5</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>14617</v>
+        <v>91408</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.090</t>
+          <t>190.433</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>421</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -34147,10 +35451,10 @@
         <v>500000</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>3360</v>
+        <v>480</v>
       </c>
       <c r="E11" t="n">
         <v>500000</v>
@@ -34159,30 +35463,30 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34673</v>
+        <v>5305</v>
       </c>
       <c r="H11" t="n">
-        <v>217.9</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>14420</v>
+        <v>94251</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.292</t>
+          <t>196.356</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>484</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -34193,10 +35497,10 @@
         <v>1000000</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>3360</v>
+        <v>480</v>
       </c>
       <c r="E12" t="n">
         <v>1000000</v>
@@ -34205,30 +35509,30 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>71989</v>
+        <v>10611</v>
       </c>
       <c r="H12" t="n">
-        <v>232</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>13891</v>
+        <v>94242</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.134</t>
+          <t>196.338</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>398</v>
+        <v>13</v>
       </c>
       <c r="N12" t="n">
-        <v>570</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -34236,45 +35540,45 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>4800</v>
+        <v>960</v>
       </c>
       <c r="E13" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>74481</v>
+        <v>1395</v>
       </c>
       <c r="H13" t="n">
-        <v>323.2</v>
+        <v>11.1</v>
       </c>
       <c r="I13" t="n">
-        <v>13426</v>
+        <v>71685</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.797</t>
+          <t>74.672</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>455</v>
+        <v>17</v>
       </c>
       <c r="M13" t="n">
-        <v>536</v>
+        <v>28</v>
       </c>
       <c r="N13" t="n">
-        <v>636</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -34282,45 +35586,45 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>4800</v>
+        <v>960</v>
       </c>
       <c r="E14" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>74834</v>
+        <v>5890</v>
       </c>
       <c r="H14" t="n">
-        <v>336.6</v>
+        <v>10.3</v>
       </c>
       <c r="I14" t="n">
-        <v>13363</v>
+        <v>84890</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.784</t>
+          <t>88.427</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>448</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
-        <v>537</v>
+        <v>22</v>
       </c>
       <c r="N14" t="n">
-        <v>660</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -34331,10 +35635,10 @@
         <v>1000000</v>
       </c>
       <c r="C15" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>7200</v>
+        <v>960</v>
       </c>
       <c r="E15" t="n">
         <v>1000000</v>
@@ -34343,30 +35647,30 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75743</v>
+        <v>11347</v>
       </c>
       <c r="H15" t="n">
-        <v>521.2</v>
+        <v>10.1</v>
       </c>
       <c r="I15" t="n">
-        <v>13203</v>
+        <v>88129</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.834</t>
+          <t>91.801</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>519</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>670</v>
+        <v>14</v>
       </c>
       <c r="M15" t="n">
-        <v>826</v>
+        <v>24</v>
       </c>
       <c r="N15" t="n">
-        <v>1654</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -34377,10 +35681,10 @@
         <v>1000000</v>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>6000</v>
+        <v>960</v>
       </c>
       <c r="E16" t="n">
         <v>1000000</v>
@@ -34389,30 +35693,30 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>73295</v>
+        <v>11084</v>
       </c>
       <c r="H16" t="n">
-        <v>413.3</v>
+        <v>9.9</v>
       </c>
       <c r="I16" t="n">
-        <v>13643</v>
+        <v>90220</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.274</t>
+          <t>93.979</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>408</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>562</v>
+        <v>13</v>
       </c>
       <c r="M16" t="n">
-        <v>663</v>
+        <v>21</v>
       </c>
       <c r="N16" t="n">
-        <v>817</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -34420,45 +35724,45 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>5760</v>
+        <v>1440</v>
       </c>
       <c r="E17" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>70434</v>
+        <v>1416</v>
       </c>
       <c r="H17" t="n">
-        <v>391.6</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>14198</v>
+        <v>70621</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.465</t>
+          <t>49.042</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>383</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>514</v>
+        <v>25</v>
       </c>
       <c r="M17" t="n">
-        <v>669</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>2508</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -34466,45 +35770,45 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C18" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>5280</v>
+        <v>1440</v>
       </c>
       <c r="E18" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>73955</v>
+        <v>1307</v>
       </c>
       <c r="H18" t="n">
-        <v>380.7</v>
+        <v>14.9</v>
       </c>
       <c r="I18" t="n">
-        <v>13522</v>
+        <v>76511</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2.561</t>
+          <t>53.133</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>370</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>508</v>
+        <v>23</v>
       </c>
       <c r="M18" t="n">
-        <v>599</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
-        <v>699</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -34512,45 +35816,45 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C19" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>9600</v>
+        <v>1440</v>
       </c>
       <c r="E19" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75826</v>
+        <v>1291</v>
       </c>
       <c r="H19" t="n">
-        <v>694.3</v>
+        <v>14.7</v>
       </c>
       <c r="I19" t="n">
-        <v>13188</v>
+        <v>77459</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>53.791</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>691</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>872</v>
+        <v>23</v>
       </c>
       <c r="M19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="N19" t="n">
-        <v>1083</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -34558,7 +35862,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="C20" t="n">
         <v>30</v>
@@ -34567,36 +35871,36 @@
         <v>1440</v>
       </c>
       <c r="E20" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>67819</v>
+        <v>6014</v>
       </c>
       <c r="H20" t="n">
-        <v>95.8</v>
+        <v>16.1</v>
       </c>
       <c r="I20" t="n">
-        <v>14745</v>
+        <v>83139</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.240</t>
+          <t>57.735</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M20" t="n">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="N20" t="n">
-        <v>390</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -34604,45 +35908,45 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="E21" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>59410</v>
+        <v>5989</v>
       </c>
       <c r="H21" t="n">
-        <v>112.4</v>
+        <v>16.2</v>
       </c>
       <c r="I21" t="n">
-        <v>16832</v>
+        <v>83486</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>8.767</t>
+          <t>57.976</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="N21" t="n">
-        <v>387</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -34653,10 +35957,10 @@
         <v>1000000</v>
       </c>
       <c r="C22" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>4320</v>
+        <v>1440</v>
       </c>
       <c r="E22" t="n">
         <v>1000000</v>
@@ -34665,30 +35969,30 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>71075</v>
+        <v>11187</v>
       </c>
       <c r="H22" t="n">
-        <v>294.1</v>
+        <v>15.3</v>
       </c>
       <c r="I22" t="n">
-        <v>14070</v>
+        <v>89389</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3.257</t>
+          <t>62.076</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="L22" t="n">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="M22" t="n">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="N22" t="n">
-        <v>652</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -34699,10 +36003,10 @@
         <v>1000000</v>
       </c>
       <c r="C23" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>4560</v>
+        <v>1440</v>
       </c>
       <c r="E23" t="n">
         <v>1000000</v>
@@ -34711,30 +36015,30 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>67537</v>
+        <v>11957</v>
       </c>
       <c r="H23" t="n">
-        <v>292.2</v>
+        <v>16.4</v>
       </c>
       <c r="I23" t="n">
-        <v>14807</v>
+        <v>83633</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.247</t>
+          <t>58.078</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>463</v>
+        <v>34</v>
       </c>
       <c r="N23" t="n">
-        <v>543</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -34742,45 +36046,45 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="C24" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>5280</v>
+        <v>2400</v>
       </c>
       <c r="E24" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>69735</v>
+        <v>5789</v>
       </c>
       <c r="H24" t="n">
-        <v>358.2</v>
+        <v>26.1</v>
       </c>
       <c r="I24" t="n">
-        <v>14340</v>
+        <v>86371</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.716</t>
+          <t>35.988</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="L24" t="n">
-        <v>483</v>
+        <v>33</v>
       </c>
       <c r="M24" t="n">
-        <v>575</v>
+        <v>59</v>
       </c>
       <c r="N24" t="n">
-        <v>798</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -34788,45 +36092,45 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="C25" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>5760</v>
+        <v>2400</v>
       </c>
       <c r="E25" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69170</v>
+        <v>6320</v>
       </c>
       <c r="H25" t="n">
-        <v>388.8</v>
+        <v>28.5</v>
       </c>
       <c r="I25" t="n">
-        <v>14457</v>
+        <v>79114</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.510</t>
+          <t>32.964</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>387</v>
+        <v>26</v>
       </c>
       <c r="L25" t="n">
-        <v>509</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
-        <v>611</v>
+        <v>59</v>
       </c>
       <c r="N25" t="n">
-        <v>678</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -34834,45 +36138,45 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="C26" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>5760</v>
+        <v>2400</v>
       </c>
       <c r="E26" t="n">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>140854</v>
+        <v>5864</v>
       </c>
       <c r="H26" t="n">
-        <v>396.9</v>
+        <v>26.5</v>
       </c>
       <c r="I26" t="n">
-        <v>14199</v>
+        <v>85266</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.465</t>
+          <t>35.528</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>383</v>
+        <v>24</v>
       </c>
       <c r="L26" t="n">
-        <v>539</v>
+        <v>34</v>
       </c>
       <c r="M26" t="n">
-        <v>644</v>
+        <v>61</v>
       </c>
       <c r="N26" t="n">
-        <v>802</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -34880,45 +36184,45 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="E27" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>144429</v>
+        <v>11956</v>
       </c>
       <c r="H27" t="n">
-        <v>334.2</v>
+        <v>27.5</v>
       </c>
       <c r="I27" t="n">
-        <v>13848</v>
+        <v>83640</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.885</t>
+          <t>34.850</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>334</v>
+        <v>26</v>
       </c>
       <c r="L27" t="n">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="M27" t="n">
-        <v>533</v>
+        <v>49</v>
       </c>
       <c r="N27" t="n">
-        <v>644</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -34926,45 +36230,45 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D28" t="n">
-        <v>4800</v>
+        <v>3360</v>
       </c>
       <c r="E28" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>201322</v>
+        <v>6488</v>
       </c>
       <c r="H28" t="n">
-        <v>314.5</v>
+        <v>37.8</v>
       </c>
       <c r="I28" t="n">
-        <v>14902</v>
+        <v>77065</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.105</t>
+          <t>22.936</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="L28" t="n">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="M28" t="n">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="N28" t="n">
-        <v>742</v>
+        <v>883</v>
       </c>
     </row>
     <row r="29">
@@ -34972,45 +36276,3035 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D29" t="n">
-        <v>4800</v>
+        <v>3360</v>
       </c>
       <c r="E29" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>356804</v>
+        <v>6807</v>
       </c>
       <c r="H29" t="n">
-        <v>338.6</v>
+        <v>42.8</v>
       </c>
       <c r="I29" t="n">
-        <v>14013</v>
+        <v>73454</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.919</t>
+          <t>21.861</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="L29" t="n">
-        <v>452</v>
+        <v>56</v>
       </c>
       <c r="M29" t="n">
+        <v>71</v>
+      </c>
+      <c r="N29" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>70</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3360</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12570</v>
+      </c>
+      <c r="H30" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>79554</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>23.677</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>36</v>
+      </c>
+      <c r="L30" t="n">
+        <v>52</v>
+      </c>
+      <c r="M30" t="n">
+        <v>84</v>
+      </c>
+      <c r="N30" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>60</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E31" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6479</v>
+      </c>
+      <c r="H31" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>77172</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>26.796</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>32</v>
+      </c>
+      <c r="L31" t="n">
+        <v>41</v>
+      </c>
+      <c r="M31" t="n">
+        <v>80</v>
+      </c>
+      <c r="N31" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12499</v>
+      </c>
+      <c r="H32" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>80006</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>27.780</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>31</v>
+      </c>
+      <c r="L32" t="n">
+        <v>49</v>
+      </c>
+      <c r="M32" t="n">
+        <v>70</v>
+      </c>
+      <c r="N32" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>60</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11812</v>
+      </c>
+      <c r="H33" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>84660</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>29.396</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>30</v>
+      </c>
+      <c r="L33" t="n">
+        <v>41</v>
+      </c>
+      <c r="M33" t="n">
+        <v>62</v>
+      </c>
+      <c r="N33" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12569</v>
+      </c>
+      <c r="H34" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>79561</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>27.625</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>45</v>
+      </c>
+      <c r="M34" t="n">
+        <v>67</v>
+      </c>
+      <c r="N34" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>65</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3120</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H35" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>77101</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>24.712</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>36</v>
+      </c>
+      <c r="L35" t="n">
+        <v>52</v>
+      </c>
+      <c r="M35" t="n">
+        <v>75</v>
+      </c>
+      <c r="N35" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12433</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>80431</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>27.927</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>32</v>
+      </c>
+      <c r="L36" t="n">
+        <v>43</v>
+      </c>
+      <c r="M36" t="n">
+        <v>66</v>
+      </c>
+      <c r="N36" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>80</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3840</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10910</v>
+      </c>
+      <c r="H37" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>91659</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>23.870</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>37</v>
+      </c>
+      <c r="L37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" t="n">
+        <v>68</v>
+      </c>
+      <c r="N37" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>80</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3840</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>23584</v>
+      </c>
+      <c r="H38" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>84803</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>22.084</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>41</v>
+      </c>
+      <c r="L38" t="n">
+        <v>56</v>
+      </c>
+      <c r="M38" t="n">
+        <v>77</v>
+      </c>
+      <c r="N38" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>80</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3840</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25536</v>
+      </c>
+      <c r="H39" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>78321</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20.396</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>44</v>
+      </c>
+      <c r="L39" t="n">
+        <v>61</v>
+      </c>
+      <c r="M39" t="n">
+        <v>90</v>
+      </c>
+      <c r="N39" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>80</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3840</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12662</v>
+      </c>
+      <c r="H40" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>78976</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20.567</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>42</v>
+      </c>
+      <c r="L40" t="n">
+        <v>61</v>
+      </c>
+      <c r="M40" t="n">
+        <v>86</v>
+      </c>
+      <c r="N40" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>80</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3840</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13211</v>
+      </c>
+      <c r="H41" t="n">
+        <v>48</v>
+      </c>
+      <c r="I41" t="n">
+        <v>75694</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>19.712</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>47</v>
+      </c>
+      <c r="L41" t="n">
+        <v>58</v>
+      </c>
+      <c r="M41" t="n">
+        <v>74</v>
+      </c>
+      <c r="N41" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12592</v>
+      </c>
+      <c r="H42" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>79416</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>16.545</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>54</v>
+      </c>
+      <c r="L42" t="n">
+        <v>71</v>
+      </c>
+      <c r="M42" t="n">
+        <v>92</v>
+      </c>
+      <c r="N42" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13293</v>
+      </c>
+      <c r="H43" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>75228</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>15.672</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>56</v>
+      </c>
+      <c r="L43" t="n">
+        <v>75</v>
+      </c>
+      <c r="M43" t="n">
+        <v>99</v>
+      </c>
+      <c r="N43" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>150</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12214</v>
+      </c>
+      <c r="H44" t="n">
+        <v>80</v>
+      </c>
+      <c r="I44" t="n">
+        <v>81873</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11.371</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>81</v>
+      </c>
+      <c r="L44" t="n">
+        <v>87</v>
+      </c>
+      <c r="M44" t="n">
+        <v>200</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>150</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13992</v>
+      </c>
+      <c r="H45" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>71469</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>9.926</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>91</v>
+      </c>
+      <c r="L45" t="n">
+        <v>112</v>
+      </c>
+      <c r="M45" t="n">
+        <v>153</v>
+      </c>
+      <c r="N45" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>150</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>11314</v>
+      </c>
+      <c r="H46" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I46" t="n">
+        <v>88386</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>12.276</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>58</v>
+      </c>
+      <c r="L46" t="n">
+        <v>153</v>
+      </c>
+      <c r="M46" t="n">
+        <v>287</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>150</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15021</v>
+      </c>
+      <c r="H47" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>66573</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>9.246</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>94</v>
+      </c>
+      <c r="L47" t="n">
+        <v>122</v>
+      </c>
+      <c r="M47" t="n">
+        <v>187</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>150</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>14040</v>
+      </c>
+      <c r="H48" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>71225</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>9.892</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>92</v>
+      </c>
+      <c r="L48" t="n">
+        <v>111</v>
+      </c>
+      <c r="M48" t="n">
+        <v>142</v>
+      </c>
+      <c r="N48" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>150</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13959</v>
+      </c>
+      <c r="H49" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>71638</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>9.950</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>88</v>
+      </c>
+      <c r="L49" t="n">
+        <v>112</v>
+      </c>
+      <c r="M49" t="n">
+        <v>171</v>
+      </c>
+      <c r="N49" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C50" t="n">
+        <v>150</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14139</v>
+      </c>
+      <c r="H50" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>70726</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>9.823</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>93</v>
+      </c>
+      <c r="L50" t="n">
+        <v>113</v>
+      </c>
+      <c r="M50" t="n">
+        <v>150</v>
+      </c>
+      <c r="N50" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>180</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>14586</v>
+      </c>
+      <c r="H51" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>68559</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>7.935</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>115</v>
+      </c>
+      <c r="L51" t="n">
+        <v>138</v>
+      </c>
+      <c r="M51" t="n">
+        <v>169</v>
+      </c>
+      <c r="N51" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>180</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>14659</v>
+      </c>
+      <c r="H52" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>68217</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>7.895</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>115</v>
+      </c>
+      <c r="L52" t="n">
+        <v>144</v>
+      </c>
+      <c r="M52" t="n">
+        <v>178</v>
+      </c>
+      <c r="N52" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>180</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E53" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8433</v>
+      </c>
+      <c r="H53" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>59291</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6.862</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>118</v>
+      </c>
+      <c r="L53" t="n">
+        <v>153</v>
+      </c>
+      <c r="M53" t="n">
+        <v>605</v>
+      </c>
+      <c r="N53" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>180</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>27853</v>
+      </c>
+      <c r="H54" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>71806</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>8.311</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>113</v>
+      </c>
+      <c r="L54" t="n">
+        <v>140</v>
+      </c>
+      <c r="M54" t="n">
+        <v>168</v>
+      </c>
+      <c r="N54" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>180</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29083</v>
+      </c>
+      <c r="H55" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>68769</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7.959</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>115</v>
+      </c>
+      <c r="L55" t="n">
+        <v>147</v>
+      </c>
+      <c r="M55" t="n">
+        <v>236</v>
+      </c>
+      <c r="N55" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>200</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>14543</v>
+      </c>
+      <c r="H56" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>68762</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>7.163</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>126</v>
+      </c>
+      <c r="L56" t="n">
+        <v>153</v>
+      </c>
+      <c r="M56" t="n">
+        <v>229</v>
+      </c>
+      <c r="N56" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>180</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14540</v>
+      </c>
+      <c r="H57" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>68776</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7.960</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>112</v>
+      </c>
+      <c r="L57" t="n">
+        <v>141</v>
+      </c>
+      <c r="M57" t="n">
+        <v>170</v>
+      </c>
+      <c r="N57" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>250</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>15305</v>
+      </c>
+      <c r="H58" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>65338</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>5.445</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>158</v>
+      </c>
+      <c r="L58" t="n">
+        <v>195</v>
+      </c>
+      <c r="M58" t="n">
+        <v>469</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C59" t="n">
+        <v>250</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>28953</v>
+      </c>
+      <c r="H59" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>69077</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>5.756</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>159</v>
+      </c>
+      <c r="L59" t="n">
+        <v>196</v>
+      </c>
+      <c r="M59" t="n">
+        <v>287</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>250</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>16238</v>
+      </c>
+      <c r="H60" t="n">
+        <v>163</v>
+      </c>
+      <c r="I60" t="n">
+        <v>61584</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5.132</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>154</v>
+      </c>
+      <c r="L60" t="n">
+        <v>186</v>
+      </c>
+      <c r="M60" t="n">
+        <v>341</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>300</v>
+      </c>
+      <c r="D61" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13281</v>
+      </c>
+      <c r="H61" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>75296</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>5.229</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>163</v>
+      </c>
+      <c r="L61" t="n">
+        <v>181</v>
+      </c>
+      <c r="M61" t="n">
+        <v>261</v>
+      </c>
+      <c r="N61" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>300</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14813</v>
+      </c>
+      <c r="H62" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>67508</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4.688</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>176</v>
+      </c>
+      <c r="L62" t="n">
+        <v>219</v>
+      </c>
+      <c r="M62" t="n">
+        <v>377</v>
+      </c>
+      <c r="N62" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C63" t="n">
+        <v>300</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14219</v>
+      </c>
+      <c r="H63" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>70328</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4.884</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>162</v>
+      </c>
+      <c r="L63" t="n">
+        <v>205</v>
+      </c>
+      <c r="M63" t="n">
+        <v>331</v>
+      </c>
+      <c r="N63" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>300</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>14968</v>
+      </c>
+      <c r="H64" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="I64" t="n">
+        <v>66809</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>4.640</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>176</v>
+      </c>
+      <c r="L64" t="n">
+        <v>208</v>
+      </c>
+      <c r="M64" t="n">
+        <v>651</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>300</v>
+      </c>
+      <c r="D65" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>14366</v>
+      </c>
+      <c r="H65" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>69609</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4.834</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>164</v>
+      </c>
+      <c r="L65" t="n">
+        <v>203</v>
+      </c>
+      <c r="M65" t="n">
+        <v>554</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C66" t="n">
+        <v>300</v>
+      </c>
+      <c r="D66" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>26118</v>
+      </c>
+      <c r="H66" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>76576</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>5.318</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>166</v>
+      </c>
+      <c r="L66" t="n">
+        <v>198</v>
+      </c>
+      <c r="M66" t="n">
+        <v>260</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C67" t="n">
+        <v>300</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25679</v>
+      </c>
+      <c r="H67" t="n">
+        <v>175.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>77885</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>5.409</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>165</v>
+      </c>
+      <c r="L67" t="n">
+        <v>198</v>
+      </c>
+      <c r="M67" t="n">
+        <v>360</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C68" t="n">
+        <v>400</v>
+      </c>
+      <c r="D68" t="n">
+        <v>19200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13957</v>
+      </c>
+      <c r="H68" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>71649</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>3.732</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>214</v>
+      </c>
+      <c r="L68" t="n">
+        <v>260</v>
+      </c>
+      <c r="M68" t="n">
+        <v>298</v>
+      </c>
+      <c r="N68" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C69" t="n">
+        <v>400</v>
+      </c>
+      <c r="D69" t="n">
+        <v>19200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>14640</v>
+      </c>
+      <c r="H69" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>68306</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>3.558</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>226</v>
+      </c>
+      <c r="L69" t="n">
+        <v>267</v>
+      </c>
+      <c r="M69" t="n">
+        <v>486</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C70" t="n">
+        <v>500</v>
+      </c>
+      <c r="D70" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15258</v>
+      </c>
+      <c r="H70" t="n">
+        <v>292</v>
+      </c>
+      <c r="I70" t="n">
+        <v>65539</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2.731</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>306</v>
+      </c>
+      <c r="L70" t="n">
+        <v>351</v>
+      </c>
+      <c r="M70" t="n">
+        <v>410</v>
+      </c>
+      <c r="N70" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C71" t="n">
+        <v>600</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14566</v>
+      </c>
+      <c r="H71" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>68653</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.384</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>313</v>
+      </c>
+      <c r="L71" t="n">
+        <v>391</v>
+      </c>
+      <c r="M71" t="n">
+        <v>515</v>
+      </c>
+      <c r="N71" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C72" t="n">
+        <v>600</v>
+      </c>
+      <c r="D72" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>14346</v>
+      </c>
+      <c r="H72" t="n">
+        <v>300</v>
+      </c>
+      <c r="I72" t="n">
+        <v>69706</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2.420</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>309</v>
+      </c>
+      <c r="L72" t="n">
+        <v>391</v>
+      </c>
+      <c r="M72" t="n">
+        <v>454</v>
+      </c>
+      <c r="N72" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C73" t="n">
+        <v>600</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27805</v>
+      </c>
+      <c r="H73" t="n">
+        <v>336.9</v>
+      </c>
+      <c r="I73" t="n">
+        <v>71930</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2.498</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>346</v>
+      </c>
+      <c r="L73" t="n">
+        <v>421</v>
+      </c>
+      <c r="M73" t="n">
+        <v>654</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7461</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>29647</v>
+      </c>
+      <c r="H74" t="n">
+        <v>354.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>67460</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2.342</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>358</v>
+      </c>
+      <c r="L74" t="n">
+        <v>426</v>
+      </c>
+      <c r="M74" t="n">
+        <v>665</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>600</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15499</v>
+      </c>
+      <c r="H75" t="n">
+        <v>329.7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>64520</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2.240</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>345</v>
+      </c>
+      <c r="L75" t="n">
+        <v>405</v>
+      </c>
+      <c r="M75" t="n">
+        <v>492</v>
+      </c>
+      <c r="N75" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>700</v>
+      </c>
+      <c r="D76" t="n">
+        <v>33600</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15975</v>
+      </c>
+      <c r="H76" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>62598</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1.863</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>317</v>
+      </c>
+      <c r="L76" t="n">
+        <v>390</v>
+      </c>
+      <c r="M76" t="n">
+        <v>425</v>
+      </c>
+      <c r="N76" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>700</v>
+      </c>
+      <c r="D77" t="n">
+        <v>33600</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25689</v>
+      </c>
+      <c r="H77" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>77854</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2.317</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>304</v>
+      </c>
+      <c r="L77" t="n">
+        <v>326</v>
+      </c>
+      <c r="M77" t="n">
+        <v>349</v>
+      </c>
+      <c r="N77" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>800</v>
+      </c>
+      <c r="D78" t="n">
+        <v>38400</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16267</v>
+      </c>
+      <c r="H78" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="I78" t="n">
+        <v>61474</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>1.601</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>226</v>
+      </c>
+      <c r="L78" t="n">
+        <v>392</v>
+      </c>
+      <c r="M78" t="n">
+        <v>431</v>
+      </c>
+      <c r="N78" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>800</v>
+      </c>
+      <c r="D79" t="n">
+        <v>38400</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>29098</v>
+      </c>
+      <c r="H79" t="n">
+        <v>278.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>68733</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>1.790</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>325</v>
+      </c>
+      <c r="L79" t="n">
+        <v>395</v>
+      </c>
+      <c r="M79" t="n">
+        <v>464</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>17024</v>
+      </c>
+      <c r="H80" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="I80" t="n">
+        <v>58741</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1.224</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>262</v>
+      </c>
+      <c r="L80" t="n">
+        <v>348</v>
+      </c>
+      <c r="M80" t="n">
+        <v>402</v>
+      </c>
+      <c r="N80" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>31278</v>
+      </c>
+      <c r="H81" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="I81" t="n">
+        <v>63943</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1.332</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>316</v>
+      </c>
+      <c r="L81" t="n">
+        <v>404</v>
+      </c>
+      <c r="M81" t="n">
+        <v>465</v>
+      </c>
+      <c r="N81" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D82" t="n">
+        <v>57600</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>18755</v>
+      </c>
+      <c r="H82" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>53319</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.926</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>243</v>
+      </c>
+      <c r="L82" t="n">
+        <v>344</v>
+      </c>
+      <c r="M82" t="n">
+        <v>646</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D83" t="n">
+        <v>57600</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>18296</v>
+      </c>
+      <c r="H83" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>54657</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.949</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>301</v>
+      </c>
+      <c r="L83" t="n">
+        <v>371</v>
+      </c>
+      <c r="M83" t="n">
+        <v>446</v>
+      </c>
+      <c r="N83" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D84" t="n">
+        <v>57600</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>28927</v>
+      </c>
+      <c r="H84" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>69140</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>243</v>
+      </c>
+      <c r="L84" t="n">
+        <v>324</v>
+      </c>
+      <c r="M84" t="n">
+        <v>377</v>
+      </c>
+      <c r="N84" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D85" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>33571</v>
+      </c>
+      <c r="H85" t="n">
+        <v>256.3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>59575</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.827</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>264</v>
+      </c>
+      <c r="L85" t="n">
+        <v>355</v>
+      </c>
+      <c r="M85" t="n">
+        <v>425</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D86" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>44082</v>
+      </c>
+      <c r="H86" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>68055</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.945</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>254</v>
+      </c>
+      <c r="L86" t="n">
+        <v>369</v>
+      </c>
+      <c r="M86" t="n">
+        <v>432</v>
+      </c>
+      <c r="N86" t="n">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>39697</v>
+      </c>
+      <c r="H87" t="n">
+        <v>198</v>
+      </c>
+      <c r="I87" t="n">
+        <v>50382</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.525</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>167</v>
+      </c>
+      <c r="L87" t="n">
+        <v>260</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1278</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>24373</v>
+      </c>
+      <c r="H88" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="I88" t="n">
+        <v>41029</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.427</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>182</v>
+      </c>
+      <c r="L88" t="n">
+        <v>280</v>
+      </c>
+      <c r="M88" t="n">
+        <v>403</v>
+      </c>
+      <c r="N88" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>39412</v>
+      </c>
+      <c r="H89" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>50746</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.529</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>125</v>
+      </c>
+      <c r="L89" t="n">
+        <v>210</v>
+      </c>
+      <c r="M89" t="n">
+        <v>268</v>
+      </c>
+      <c r="N89" t="n">
         <v>553</v>
       </c>
-      <c r="N29" t="n">
-        <v>818</v>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>34820</v>
+      </c>
+      <c r="H90" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="I90" t="n">
+        <v>57438</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.598</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>211</v>
+      </c>
+      <c r="L90" t="n">
+        <v>258</v>
+      </c>
+      <c r="M90" t="n">
+        <v>351</v>
+      </c>
+      <c r="N90" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D91" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>74154</v>
+      </c>
+      <c r="H91" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="I91" t="n">
+        <v>67427</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.702</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>250</v>
+      </c>
+      <c r="L91" t="n">
+        <v>343</v>
+      </c>
+      <c r="M91" t="n">
+        <v>407</v>
+      </c>
+      <c r="N91" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D92" t="n">
+        <v>144000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>82317</v>
+      </c>
+      <c r="H92" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="I92" t="n">
+        <v>60741</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.422</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>201</v>
+      </c>
+      <c r="L92" t="n">
+        <v>248</v>
+      </c>
+      <c r="M92" t="n">
+        <v>295</v>
+      </c>
+      <c r="N92" t="n">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>192000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>90150</v>
+      </c>
+      <c r="H93" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>55463</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.289</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>189</v>
+      </c>
+      <c r="L93" t="n">
+        <v>246</v>
+      </c>
+      <c r="M93" t="n">
+        <v>302</v>
+      </c>
+      <c r="N93" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>100618</v>
+      </c>
+      <c r="H94" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>49693</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.207</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>181</v>
+      </c>
+      <c r="L94" t="n">
+        <v>259</v>
+      </c>
+      <c r="M94" t="n">
+        <v>356</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -35023,7 +39317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
